--- a/仕様書/コネクトシティ_仕様書_テンプレ.xlsx
+++ b/仕様書/コネクトシティ_仕様書_テンプレ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2022年度\日本ゲーム大賞アマチュア部門\JGA_2022_バージョン管理\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4141422-47E7-4DE9-BBA1-4858516DF433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B252B06-5BEB-42CD-ABB0-652A35D30F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>仕様書：</t>
     <rPh sb="0" eb="3">
@@ -103,10 +103,6 @@
     <rPh sb="0" eb="2">
       <t>モクジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2022//3/8</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -488,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,6 +531,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -909,29 +908,29 @@
     <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>11</v>
+    <row r="1" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:73" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:73" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+    <row r="2" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:73" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="20" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:73" s="21" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="20"/>
     </row>
     <row r="6" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
@@ -941,73 +940,73 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="25"/>
-      <c r="BK7" s="25"/>
-      <c r="BL7" s="25"/>
-      <c r="BM7" s="25"/>
-      <c r="BN7" s="25"/>
-      <c r="BO7" s="25"/>
-      <c r="BP7" s="25"/>
-      <c r="BQ7" s="25"/>
-      <c r="BR7" s="25"/>
-      <c r="BS7" s="25"/>
-      <c r="BT7" s="25"/>
-      <c r="BU7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="26"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="26"/>
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="26"/>
+      <c r="AZ7" s="26"/>
+      <c r="BA7" s="26"/>
+      <c r="BB7" s="26"/>
+      <c r="BC7" s="26"/>
+      <c r="BD7" s="26"/>
+      <c r="BE7" s="26"/>
+      <c r="BF7" s="26"/>
+      <c r="BG7" s="26"/>
+      <c r="BH7" s="26"/>
+      <c r="BI7" s="26"/>
+      <c r="BJ7" s="26"/>
+      <c r="BK7" s="26"/>
+      <c r="BL7" s="26"/>
+      <c r="BM7" s="26"/>
+      <c r="BN7" s="26"/>
+      <c r="BO7" s="26"/>
+      <c r="BP7" s="26"/>
+      <c r="BQ7" s="26"/>
+      <c r="BR7" s="26"/>
+      <c r="BS7" s="26"/>
+      <c r="BT7" s="26"/>
+      <c r="BU7" s="26"/>
     </row>
     <row r="8" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7"/>
@@ -1017,71 +1016,71 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="25"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="25"/>
-      <c r="BA8" s="25"/>
-      <c r="BB8" s="25"/>
-      <c r="BC8" s="25"/>
-      <c r="BD8" s="25"/>
-      <c r="BE8" s="25"/>
-      <c r="BF8" s="25"/>
-      <c r="BG8" s="25"/>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="25"/>
-      <c r="BJ8" s="25"/>
-      <c r="BK8" s="25"/>
-      <c r="BL8" s="25"/>
-      <c r="BM8" s="25"/>
-      <c r="BN8" s="25"/>
-      <c r="BO8" s="25"/>
-      <c r="BP8" s="25"/>
-      <c r="BQ8" s="25"/>
-      <c r="BR8" s="25"/>
-      <c r="BS8" s="25"/>
-      <c r="BT8" s="25"/>
-      <c r="BU8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="26"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="26"/>
+      <c r="AV8" s="26"/>
+      <c r="AW8" s="26"/>
+      <c r="AX8" s="26"/>
+      <c r="AY8" s="26"/>
+      <c r="AZ8" s="26"/>
+      <c r="BA8" s="26"/>
+      <c r="BB8" s="26"/>
+      <c r="BC8" s="26"/>
+      <c r="BD8" s="26"/>
+      <c r="BE8" s="26"/>
+      <c r="BF8" s="26"/>
+      <c r="BG8" s="26"/>
+      <c r="BH8" s="26"/>
+      <c r="BI8" s="26"/>
+      <c r="BJ8" s="26"/>
+      <c r="BK8" s="26"/>
+      <c r="BL8" s="26"/>
+      <c r="BM8" s="26"/>
+      <c r="BN8" s="26"/>
+      <c r="BO8" s="26"/>
+      <c r="BP8" s="26"/>
+      <c r="BQ8" s="26"/>
+      <c r="BR8" s="26"/>
+      <c r="BS8" s="26"/>
+      <c r="BT8" s="26"/>
+      <c r="BU8" s="26"/>
     </row>
     <row r="9" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10"/>
@@ -1091,71 +1090,71 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25"/>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25"/>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25"/>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25"/>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26"/>
+      <c r="BK9" s="26"/>
+      <c r="BL9" s="26"/>
+      <c r="BM9" s="26"/>
+      <c r="BN9" s="26"/>
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="26"/>
+      <c r="BQ9" s="26"/>
+      <c r="BR9" s="26"/>
+      <c r="BS9" s="26"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="26"/>
     </row>
     <row r="10" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="7"/>
@@ -1165,79 +1164,79 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="27" t="s">
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="28" t="s">
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="24" t="s">
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="24"/>
-      <c r="AX10" s="24"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="24"/>
-      <c r="BA10" s="24"/>
-      <c r="BB10" s="24"/>
-      <c r="BC10" s="24"/>
-      <c r="BD10" s="24"/>
-      <c r="BE10" s="24"/>
-      <c r="BF10" s="24"/>
-      <c r="BG10" s="24"/>
-      <c r="BH10" s="24"/>
-      <c r="BI10" s="24"/>
-      <c r="BJ10" s="24"/>
-      <c r="BK10" s="24"/>
-      <c r="BL10" s="24"/>
-      <c r="BM10" s="24"/>
-      <c r="BN10" s="24"/>
-      <c r="BO10" s="24"/>
-      <c r="BP10" s="24"/>
-      <c r="BQ10" s="24"/>
-      <c r="BR10" s="24"/>
-      <c r="BS10" s="24"/>
-      <c r="BT10" s="24"/>
-      <c r="BU10" s="24"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="25"/>
+      <c r="AW10" s="25"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="25"/>
+      <c r="AZ10" s="25"/>
+      <c r="BA10" s="25"/>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="25"/>
+      <c r="BD10" s="25"/>
+      <c r="BE10" s="25"/>
+      <c r="BF10" s="25"/>
+      <c r="BG10" s="25"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="25"/>
+      <c r="BJ10" s="25"/>
+      <c r="BK10" s="25"/>
+      <c r="BL10" s="25"/>
+      <c r="BM10" s="25"/>
+      <c r="BN10" s="25"/>
+      <c r="BO10" s="25"/>
+      <c r="BP10" s="25"/>
+      <c r="BQ10" s="25"/>
+      <c r="BR10" s="25"/>
+      <c r="BS10" s="25"/>
+      <c r="BT10" s="25"/>
+      <c r="BU10" s="25"/>
     </row>
     <row r="11" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
@@ -1247,71 +1246,71 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="24"/>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="24"/>
-      <c r="AV11" s="24"/>
-      <c r="AW11" s="24"/>
-      <c r="AX11" s="24"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="24"/>
-      <c r="BA11" s="24"/>
-      <c r="BB11" s="24"/>
-      <c r="BC11" s="24"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="24"/>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="24"/>
-      <c r="BH11" s="24"/>
-      <c r="BI11" s="24"/>
-      <c r="BJ11" s="24"/>
-      <c r="BK11" s="24"/>
-      <c r="BL11" s="24"/>
-      <c r="BM11" s="24"/>
-      <c r="BN11" s="24"/>
-      <c r="BO11" s="24"/>
-      <c r="BP11" s="24"/>
-      <c r="BQ11" s="24"/>
-      <c r="BR11" s="24"/>
-      <c r="BS11" s="24"/>
-      <c r="BT11" s="24"/>
-      <c r="BU11" s="24"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="25"/>
+      <c r="BD11" s="25"/>
+      <c r="BE11" s="25"/>
+      <c r="BF11" s="25"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="25"/>
+      <c r="BL11" s="25"/>
+      <c r="BM11" s="25"/>
+      <c r="BN11" s="25"/>
+      <c r="BO11" s="25"/>
+      <c r="BP11" s="25"/>
+      <c r="BQ11" s="25"/>
+      <c r="BR11" s="25"/>
+      <c r="BS11" s="25"/>
+      <c r="BT11" s="25"/>
+      <c r="BU11" s="25"/>
     </row>
     <row r="12" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7"/>
@@ -1321,71 +1320,71 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
-      <c r="AT12" s="24"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="24"/>
-      <c r="AX12" s="24"/>
-      <c r="AY12" s="24"/>
-      <c r="AZ12" s="24"/>
-      <c r="BA12" s="24"/>
-      <c r="BB12" s="24"/>
-      <c r="BC12" s="24"/>
-      <c r="BD12" s="24"/>
-      <c r="BE12" s="24"/>
-      <c r="BF12" s="24"/>
-      <c r="BG12" s="24"/>
-      <c r="BH12" s="24"/>
-      <c r="BI12" s="24"/>
-      <c r="BJ12" s="24"/>
-      <c r="BK12" s="24"/>
-      <c r="BL12" s="24"/>
-      <c r="BM12" s="24"/>
-      <c r="BN12" s="24"/>
-      <c r="BO12" s="24"/>
-      <c r="BP12" s="24"/>
-      <c r="BQ12" s="24"/>
-      <c r="BR12" s="24"/>
-      <c r="BS12" s="24"/>
-      <c r="BT12" s="24"/>
-      <c r="BU12" s="24"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="25"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="25"/>
+      <c r="AZ12" s="25"/>
+      <c r="BA12" s="25"/>
+      <c r="BB12" s="25"/>
+      <c r="BC12" s="25"/>
+      <c r="BD12" s="25"/>
+      <c r="BE12" s="25"/>
+      <c r="BF12" s="25"/>
+      <c r="BG12" s="25"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="25"/>
+      <c r="BJ12" s="25"/>
+      <c r="BK12" s="25"/>
+      <c r="BL12" s="25"/>
+      <c r="BM12" s="25"/>
+      <c r="BN12" s="25"/>
+      <c r="BO12" s="25"/>
+      <c r="BP12" s="25"/>
+      <c r="BQ12" s="25"/>
+      <c r="BR12" s="25"/>
+      <c r="BS12" s="25"/>
+      <c r="BT12" s="25"/>
+      <c r="BU12" s="25"/>
     </row>
     <row r="13" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
@@ -1477,8 +1476,8 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="I14" s="3" t="s">
-        <v>9</v>
+      <c r="I14" s="16">
+        <v>44628</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1518,7 +1517,7 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
@@ -3117,29 +3116,29 @@
     <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>11</v>
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:7" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:7" s="21" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
@@ -3593,29 +3592,29 @@
     <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>11</v>
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:7" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:7" s="21" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
@@ -4069,29 +4068,29 @@
     <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>11</v>
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:7" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:7" s="21" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
@@ -4545,29 +4544,29 @@
     <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>11</v>
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:7" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:7" s="21" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
